--- a/second_probe/22_task/22_15.xlsx
+++ b/second_probe/22_task/22_15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aklivtsov/NEWEGE/second_probe/22_task/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.klivtsov/Documents/GitHub/NEWEGE/second_probe/22_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B20EB-B729-9348-A105-DF2E20B922FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E9F72F-7BB0-2542-807A-66D38490721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="1780" windowWidth="33800" windowHeight="19800" xr2:uid="{1F4C84AE-73BB-4AC1-A30D-605BE5946FBF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{1F4C84AE-73BB-4AC1-A30D-605BE5946FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -194,45 +194,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -246,8 +217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -562,23 +531,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BCD88A-A3CD-4F2D-9948-740116611D19}">
-  <dimension ref="A1:BB17"/>
+  <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ37" sqref="AQ37"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="18" width="2.83203125" customWidth="1"/>
+    <col min="4" max="16" width="2.83203125" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" customWidth="1"/>
+    <col min="18" max="18" width="2.83203125" customWidth="1"/>
     <col min="19" max="31" width="0" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="2.5" hidden="1" customWidth="1"/>
     <col min="33" max="38" width="0.1640625" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="40" max="54" width="2.83203125" customWidth="1"/>
+    <col min="39" max="39" width="5" customWidth="1"/>
+    <col min="40" max="40" width="4.83203125" customWidth="1"/>
+    <col min="41" max="54" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -611,10 +583,13 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="BA2" s="13"/>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BA2" s="12"/>
+      <c r="BC2">
+        <f>COUNTIF(D2:AZ2,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -624,14 +599,28 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="BA3" s="14"/>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="13"/>
+      <c r="BC3">
+        <f t="shared" ref="BC3:BC18" si="0">COUNTIF(D3:AZ3,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -641,11 +630,19 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="BA4" s="14"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="13"/>
+      <c r="BC4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -655,13 +652,25 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="BA5" s="14"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="13"/>
+      <c r="BC5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -671,38 +680,58 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="BA6" s="14"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="13"/>
+      <c r="BC6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -712,12 +741,22 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="BA7" s="14"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="13"/>
+      <c r="BC7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -727,14 +766,28 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="BA8" s="14"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AP8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="13"/>
+      <c r="BC8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -744,11 +797,19 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="BA9" s="14"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AU9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="13"/>
+      <c r="BC9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -758,15 +819,31 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="BA10" s="14"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="13"/>
+      <c r="BC10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -776,17 +853,37 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="BA11" s="14"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AP11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="13"/>
+      <c r="BC11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -796,12 +893,22 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="BA12" s="14"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AW12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="13"/>
+      <c r="BC12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -811,14 +918,28 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="BA13" s="14"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="13"/>
+      <c r="BC13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -828,13 +949,25 @@
       <c r="C14">
         <v>9</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="BA14" s="14"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="13"/>
+      <c r="BC14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -844,10 +977,16 @@
       <c r="C15">
         <v>11</v>
       </c>
-      <c r="AZ15" s="12"/>
-      <c r="BA15" s="14"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AZ15" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="13"/>
+      <c r="BC15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -857,214 +996,318 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="AU16" s="8"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
-      <c r="BA16" s="14"/>
-    </row>
-    <row r="17" spans="4:54" x14ac:dyDescent="0.2">
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="AU16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="13"/>
+      <c r="BC16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:55" x14ac:dyDescent="0.2">
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
         <f>1+D17</f>
         <v>2</v>
       </c>
-      <c r="F17" s="16">
-        <f t="shared" ref="F17:BB17" si="0">1+E17</f>
+      <c r="F17" s="15">
+        <f t="shared" ref="F17:BB17" si="1">1+E17</f>
         <v>3</v>
       </c>
-      <c r="G17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H17" s="16">
-        <f t="shared" si="0"/>
+      <c r="H17" s="15">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="I17" s="15">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J17" s="16">
-        <f t="shared" si="0"/>
+      <c r="J17" s="15">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K17" s="16">
-        <f t="shared" si="0"/>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L17" s="16">
-        <f t="shared" si="0"/>
+      <c r="L17" s="15">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M17" s="16">
-        <f t="shared" si="0"/>
+      <c r="M17" s="15">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N17" s="16">
-        <f t="shared" si="0"/>
+      <c r="N17" s="15">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="O17" s="16">
-        <f t="shared" si="0"/>
+      <c r="O17" s="15">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P17" s="16">
-        <f t="shared" si="0"/>
+      <c r="P17" s="15">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Q17" s="16">
-        <f t="shared" si="0"/>
+      <c r="Q17" s="15">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="R17" s="16">
-        <f t="shared" si="0"/>
+      <c r="R17" s="15">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S17" s="16">
-        <f t="shared" si="0"/>
+      <c r="S17" s="15">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T17" s="16">
-        <f t="shared" si="0"/>
+      <c r="T17" s="15">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="U17" s="16">
-        <f t="shared" si="0"/>
+      <c r="U17" s="15">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="V17" s="16">
-        <f t="shared" si="0"/>
+      <c r="V17" s="15">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="W17" s="16">
-        <f t="shared" si="0"/>
+      <c r="W17" s="15">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="X17" s="16">
-        <f t="shared" si="0"/>
+      <c r="X17" s="15">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="Y17" s="16">
-        <f t="shared" si="0"/>
+      <c r="Y17" s="15">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="Z17" s="16">
-        <f t="shared" si="0"/>
+      <c r="Z17" s="15">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="AA17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AA17" s="15">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AB17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AB17" s="15">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AC17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AC17" s="15">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="AD17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AD17" s="15">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="AE17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AE17" s="15">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="AF17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AF17" s="15">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="AG17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AG17" s="15">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AH17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AH17" s="15">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="AI17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AI17" s="15">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="AJ17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AJ17" s="15">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="AK17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AK17" s="15">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="AL17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AL17" s="15">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AM17" s="16">
-        <f t="shared" si="0"/>
+      <c r="AM17" s="15">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="AN17" s="16">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="AO17" s="16">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="AP17" s="16">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="AQ17" s="16">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AR17" s="16">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="AS17" s="16">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="AT17" s="16">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="AU17" s="16">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="AV17" s="16">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="AW17" s="16">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="AX17" s="16">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="AY17" s="16">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="AZ17" s="16">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="BA17" s="17">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="BB17" s="18">
-        <f t="shared" si="0"/>
-        <v>51</v>
+      <c r="AN17" s="15">
+        <f>1+R17</f>
+        <v>16</v>
+      </c>
+      <c r="AO17" s="15">
+        <f t="shared" ref="AO17:BB17" si="2">1+S17</f>
+        <v>17</v>
+      </c>
+      <c r="AP17" s="15">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AQ17" s="15">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AR17" s="15">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="AS17" s="15">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="AT17" s="15">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="AU17" s="15">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="AV17" s="15">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AW17" s="15">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AX17" s="15">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AY17" s="15">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AZ17" s="15">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="BA17" s="15">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="BB17" s="15">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:55" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
